--- a/temp_data/熊利洪/番剧数据_熊利洪.xlsx
+++ b/temp_data/熊利洪/番剧数据_熊利洪.xlsx
@@ -1,67 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>番剧名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封面图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点踩数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>番剧类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>说明：</t>
     </r>
     <r>
@@ -70,7 +32,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -81,7 +42,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -93,7 +53,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +63,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +74,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,7 +84,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,7 +95,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,31 +105,136 @@
         <sz val="15"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>封面图放在temp_data/[自己名字]/封面图 目录下就行</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番剧名</t>
+  </si>
+  <si>
+    <t>推荐语</t>
+  </si>
+  <si>
+    <t>封面图</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>番剧类型</t>
+  </si>
+  <si>
+    <t>观看链接</t>
+  </si>
+  <si>
+    <t>浏览量</t>
+  </si>
+  <si>
+    <t>点赞数</t>
+  </si>
+  <si>
+    <t>点踩数</t>
+  </si>
+  <si>
+    <t>推荐人</t>
+  </si>
+  <si>
+    <t>网球王子</t>
+  </si>
+  <si>
+    <t>每一个角色都喜欢，每个情节都热爱，每个人的名字都记得比初高中同学更清楚。虽然它已经是连tv更新都没有消息的老漫，作者也忙于唱歌和一部新漫画而渐渐敷衍，但是每次重温的时候，还是会被感染: 青春，阳光，热血。那并不是一个没有阴霾的世界，但是有一群心中没有阴霾的少年，感染着所有的观众。</t>
+  </si>
+  <si>
+    <t>新学期开始，青春学院实力强劲的网球部的来了一个初一新生——越前龙马。虽然帮助网球部其他新生出头不被高年级欺负，不过他的态度真是跩的可以，于是很快就和前辈用比赛决胜负。出人意料的是他的实力也确实高的惊人，引起了网球部指导老师和社长手冢的注意，并破例将他选入正式队员队伍，开始了通往全国大赛的征途……其实龙马的父亲越前南次郎也曾是在世界网坛昙花一现的职网球员，在美国打败所有职业网球高手赢得冠军，却因不明原因退出网坛，归隐在日本一家寺院。龙马从小在父亲近乎捉弄的态度下学习网球，对他来说网球并不是爱好，而是打败父亲的目标，因此在他心中有一个难以超越的背影。在和队友、对手的比赛交流中，龙马渐渐看清了一个更有意义的目标——全国大赛...</t>
+  </si>
+  <si>
+    <t>青春</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md5281/?from=search&amp;seid=9502326846230115839#detail</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未来少年柯南 </t>
+  </si>
+  <si>
+    <t>来来回回看了不下十遍，和太阳王子、天空之城联系都很大</t>
+  </si>
+  <si>
+    <t>日本动画大师宫崎骏作品。西历2008年7月，因科学过度发展，威力强大的超磁力武器，在战争中被发动，地轴弯曲，地壳发生大变动，五大洲爆裂，陆地下沉，在一瞬间把一半的地球摧毁！ 20年后，在残留的小岛上，一直以为在大变动后世上只余下他与爷爷相依为命的少年高立，在偶然间，在岛上海滩救了有与动物沟通能力的少女罗拉，因为罗拉的爷爷是科学家，所以野心家们便想捕捉罗拉对其作出威胁。来到岛上的坏人杀害了高立的爷爷，并捉走了罗拉，因此高立便踏上了拯救罗拉的旅程。</t>
+  </si>
+  <si>
+    <t>科幻，热血</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md2464/?from=search&amp;seid=289260489602996452</t>
+  </si>
+  <si>
+    <t>超元气三姐妹</t>
+  </si>
+  <si>
+    <t>额(-ι_- )……，抱歉！其实标题应该是《污力十足，元气番。日常怪笑，为井（丸井）三（姊妹）》。元气十足的三姊妹，各赋性格的同学和家长以及老师们。夸大他们的兴趣，爱好及性格，让他们的脑洞造成，毁天灭地的效果（误）。（我是一路笑到尾的）</t>
+  </si>
+  <si>
+    <t>《超元气三姐妹》是桜井のりお从2006年起连载于秋田书店《周刊少年Champion》上的搞笑萌系漫画，目前尚在连载中，单行本已发售至11卷。《超元气3姐妹》和先前两部“三姐妹”的不同之处在于，本作中三姐妹的年龄相同，都是含苞待放的小学六年级生（还是思想邪恶的），而不是如那两部作品那样相差数年。 《超元气三姐妹》中的丸井三姐妹虽然是三胞胎，但是她们不只长得不像，连个性也完全不同，可以说她们是全日本长得最不像的三胞胎。</t>
+  </si>
+  <si>
+    <t>搞笑，治愈</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md949/?from=search&amp;seid=14061822939852141160</t>
+  </si>
+  <si>
+    <t>某科学的超电磁炮S</t>
+  </si>
+  <si>
+    <t>在看超炮S的时候，总是会出现一堆“生怕别人不知道自己学过高中物理”的弹幕，比如“电流是标量怎么能反弹！”“温度是标量所以初春能秒一方！”之类的。更有甚者实在让人怀疑弹幕作者连高中也没上过，“时间有方向所以应该是矢量”“向量是向量，不能算矢量”，诸如此类。</t>
+  </si>
+  <si>
+    <t>《科学超电磁炮（とある科学の超电磁炮）》是以镰池和马所著作的轻小说《魔法禁书目录》的人气角色御坂美琴为主角所作的外传漫画，由冬川基作画，连载于月刊Comic电击大王，至2009年12月已经累计销售180万部。2009年10月改编为电视动画，共25集（24集+番外篇1集），由J.C.STAFF制作。</t>
+  </si>
+  <si>
+    <t>校园</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md427/?from=search&amp;seid=15122634942905200019#long</t>
+  </si>
+  <si>
+    <t>超时空要塞 Macross</t>
+  </si>
+  <si>
+    <t>永远的经典，永远的麦克洛斯号，一条辉、早濑未沙、林明美，还有那么多麦克洛斯舰上有名的、无名的英雄们。</t>
+  </si>
+  <si>
+    <t>西历2067年，新的故事即将上演。银河系边境行星的中心、失去自我而狂暴化的“Bajura”症候群扩大化。眼见事态严重，星间复合企业体为控制症状，以少女们的“战术音乐组合walküre”与共同作战的“Valkyrie部队”一起集结。另一方面，“风之王国”被称为“空中骑士团”的“谜之Valkyrie部队”开始有所动作。“普罗多卡迪的遗产”引人思考的问号中、越过星辰，热烈的爱与友情的故事扬起了帷幕。</t>
+  </si>
+  <si>
+    <t>科幻</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md1187/?from=search&amp;seid=16593845894710338195#short</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,8 +242,158 @@
       <sz val="15"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,12 +401,11 @@
       <sz val="15"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +418,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,36 +613,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,7 +983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -331,7 +1018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -505,191 +1192,283 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="40.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="47.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="50.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+    <row r="7" ht="193.2" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6320</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1532</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+    <row r="8" ht="138" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+    <row r="9" ht="124.2" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3">
+        <v>450</v>
+      </c>
+      <c r="H9" s="3">
+        <v>123</v>
+      </c>
+      <c r="I9" s="3">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+    <row r="10" ht="96.6" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
+        <v>320</v>
+      </c>
+      <c r="H10" s="3">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="11" ht="110.4" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3">
+        <v>462</v>
+      </c>
+      <c r="H11" s="3">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" display="https://www.bilibili.com/bangumi/media/md5281/?from=search&amp;seid=9502326846230115839#detail"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://www.bilibili.com/bangumi/media/md2464/?from=search&amp;seid=289260489602996452"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://www.bilibili.com/bangumi/media/md949/?from=search&amp;seid=14061822939852141160"/>
+    <hyperlink ref="F10" r:id="rId4" display="https://www.bilibili.com/bangumi/media/md427/?from=search&amp;seid=15122634942905200019#long"/>
+    <hyperlink ref="F11" r:id="rId5" display="https://www.bilibili.com/bangumi/media/md1187/?from=search&amp;seid=16593845894710338195#short" tooltip="https://www.bilibili.com/bangumi/media/md1187/?from=search&amp;seid=16593845894710338195#short"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>